--- a/data/trans_media/IQ3006_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3006_MoAR-Edad-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,51</t>
+          <t>11,52; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,73</t>
+          <t>12,39; 14,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,03</t>
+          <t>11,14; 13,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,0</t>
+          <t>12,05; 14,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 14,79</t>
+          <t>12,78; 14,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 14,42</t>
+          <t>11,87; 14,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 13,69</t>
+          <t>12,08; 13,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,35</t>
+          <t>12,73; 14,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 13,8</t>
+          <t>11,93; 13,76</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,51</t>
+          <t>11,52; 13,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,73</t>
+          <t>12,39; 14,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,03</t>
+          <t>11,14; 13,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,0</t>
+          <t>12,05; 14,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 14,79</t>
+          <t>12,78; 14,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 14,42</t>
+          <t>11,87; 14,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,08; 13,69</t>
+          <t>12,08; 13,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,35</t>
+          <t>12,73; 14,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,93; 13,8</t>
+          <t>11,93; 13,76</t>
         </is>
       </c>
     </row>
